--- a/document/app_server接口说明书_09-22.xlsx
+++ b/document/app_server接口说明书_09-22.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="interface" sheetId="1" r:id="rId1"/>
-    <sheet name="备注" sheetId="4" r:id="rId2"/>
+    <sheet name="手机和中间件interface" sheetId="1" r:id="rId1"/>
+    <sheet name="UserLogin表" sheetId="5" r:id="rId2"/>
+    <sheet name="GpsPosition表" sheetId="6" r:id="rId3"/>
+    <sheet name="task表" sheetId="7" r:id="rId4"/>
+    <sheet name="shotTask表" sheetId="8" r:id="rId5"/>
+    <sheet name="TaskResult表" sheetId="9" r:id="rId6"/>
+    <sheet name="AlertMessage表" sheetId="10" r:id="rId7"/>
+    <sheet name="备注" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="138">
   <si>
     <t>说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> user/updatePosition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     what : ***
 }</t>
@@ -121,55 +123,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "mobile": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user/active</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "mobile": xxxx,
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "status": 0,
- "existInCompanyWiteList" : x
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>existInCompanyWiteList: 0 此号码是没有在册的号码
-                        1 此号码是在册的号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status：0 为正常
-非0作为错误返回码，请自定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>同上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user/phoneQuery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新位置信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "status": 0,
- "userName":xxx
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -189,13 +143,6 @@
   </si>
   <si>
     <t>{
- "userName":xxx
- "password":xxx
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
  "status": 0,
  "success" : xxx
 }</t>
@@ -210,34 +157,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "status": 0,
- "tasks": [
- { "taskId": xxxx,
-    "taskState":xxxx,
-    "performAddress": xxxx,
-    "finishedTime": xxx
- },
-...
- ]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对应taskId的任务详情，需要以html的形式返回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>注意，此处返回非jason方式，而是html方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>task/commitTaskResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"result": 1 施工完成
-          0 施工未能完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -254,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>task/getAlertMessage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,14 +188,6 @@
           (3）原本单有变更
        2 update 位置信息给server
        3 有新的message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"taskState":0  可抢任务
-            1   还未施工
-            2   已经完成
-            3   未能完成
-            4   已经撤销</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -343,42 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">查询用户电话号码是否是在册的电话号码
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（此功能用在注册流程中，手机会先想服务器请求查询是否手机号在册，如果在册才会再进行第三方的短信验证流程）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">激活一个手机号码
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="6"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（当发起此请求的时候说明短信验证流程已经通过）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{ 
   "latestVersionCode":xxx
    "latestVersionSize":xxx
@@ -434,7 +310,472 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参加文档 翰威抢单移动端产品需求说明书 1.1</t>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>长度</t>
+  </si>
+  <si>
+    <t>允许空值</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>允许</t>
+  </si>
+  <si>
+    <t>empty String</t>
+  </si>
+  <si>
+    <t>passWord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不允许</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：等待结果
+1：通过验证
+2：未通过验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用明文还是密文？如果是密文用何种加密方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新位置信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> user/updatePosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GpsPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "mobile":xxx"
+   passWord":xxx
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录生成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此任务的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>performAddress</t>
+  </si>
+  <si>
+    <t>finishedTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"taskState":0   无效状态
+            1   可抢任务
+            2   还未施工
+            3   已经完成
+            4   未能完成
+            5   已经撤销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求工单最晚完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户联系人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contact number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次出货设备名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskIdInNetPlatform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此任务在net平台对应的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shotTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task/commitTaskResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"result": 1 施工完成
+          0 施工未能完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task/getAlertMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>context</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskResult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlertMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.中间件生成一条记录，设置result 为0，等待net平台处理
+2.net平台读到此记录,并且设置result 为 1 或者 2 
+3.中间件读取此记录，判断result已经不为0则做对手机的逻辑处理。并且删除此条记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.中间件生成一条记录，
+2.net平台读取此记录，并且删除此记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task（任务列表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原设备信息-原设备名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.net来增加记录，当有需要的时候就改变此表内容
+2.中间件读取记录，当读取后，删除记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值设置为net平台上的工单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值设置为net平台上的工单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldDeviceInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>newDevice1Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">newDevice1Info：包括新设备的信息，可能包括多条信息：格式如下 ：（字符串：各信息之间用&amp;间隔，一个设备内的信息用空格隔开）
+“设备名1 设备单位 预出&amp;设备名2 设备单位 预出&amp;设备名3 设备单位 预出...”          </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">oldDeviceInfo：包括旧设备的信息，可能包括多条信息：格式如下 ：（字符串：各信息之间用&amp;间隔，一个设备内的信息用空格隔开）
+“设备名1 设备单位 原出 本转 本退&amp;设备名2 设备单位 原出 本转 本退&amp;设备名3 设备单位 原出 本转 本退...”          </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskExecutorMobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务执行者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当某些状态还没有确定任务执行者的时候，此项置空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此项用户判断此消息属于哪个电话号码所有者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.中间件生成一条记录，设置result 为0，等待net平台处理
+2.net平台读到此记录,并且设置result 为 1 或者 2 
+3.中间件读取此记录，判断result已经不为0则做对手机的逻辑处理。并且删除此条记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：成功
+2：失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">上传文件（包括音频，视频）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="6"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（参考：5.3 特性说明）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>task/submitFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "mobile": xxxx,
+ "taskId": xxxx,
+ "fileType":xxx,
+ "files[]":xxx
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileType:  0： 音频
+           2： 施工前照片
+           3： 施工后照片
+files: 是java的File 类型的数组要上传的文件数组
+xutil example:
+for (int i = 0; i &lt; files.size(); i++) {
+    params.addBodyParameter("files[]", files);
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0,
+ "tasks": [
+ { "taskId": xxxx,
+    "taskState":xxxx,
+    "performAddress": xxxx,
+     "photosPreconstructionSize":xxx
+     "photosUrlPreconstruction":xxx;
+     "photosPostconstructionSize":xxx;
+     "photosUrlPostconstruction":xxx;
+     "audioUrl":xxx
+     "comment":xxx
+    "finishedTime": xxx
+ },
+...
+ ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"taskState":0  可抢任务
+            1   还未施工
+            2   已经完成
+            3   未能完成
+            4   已经撤销
+"photosPreconstructionSize" 施工前的照片的个数
+"photosUrlPreconstruction" 施工前的照片的URL地址（没有时此项为null）
+"photosPostconstructionSize" 施工后的照片的个数
+"photosUrlPostconstruction" 施工后的照片的URL地址（没有时此项为null）
+"audioUrl":xxx  音频URL地址没有时此项为null）
+"comment"：附带的其它信息，当taskState为未能完成时，此项的可以解读为“任务失败原因”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">具体图片现在的例子：
+BitmapUtils mbug = new BitmapUtils(MapFragment.this.getActivity());
+            robotBitmapLoadCallBack rblcb = new robotBitmapLoadCallBack( );
+            mbug.display(View view, String uri, BitmapDisplayConfig displayConfig, BitmapLoadCallBack&lt;T&gt; callBack);
+private class robotBitmapLoadCallBack extends BitmapLoadCallBack
+    {
+        robot r = null;
+        public robotBitmapLoadCallBack( robot  r  )
+        {
+            this.r = r;
+        }
+        @Override
+        public void onLoadCompleted(View container, String uri, Bitmap bitmap, BitmapDisplayConfig config, BitmapLoadFrom from) {
+。。。
+}
+。。。
+}
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +783,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,8 +844,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,6 +876,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,7 +1047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -737,9 +1105,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -791,6 +1156,26 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1122,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1134,9 +1519,10 @@
     <col min="2" max="2" width="41.25" customWidth="1"/>
     <col min="3" max="3" width="25.375" customWidth="1"/>
     <col min="4" max="4" width="28.125" customWidth="1"/>
-    <col min="5" max="5" width="25.75" customWidth="1"/>
+    <col min="5" max="5" width="41.5" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="61.875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="77.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24" customHeight="1" thickBot="1">
@@ -1163,266 +1549,259 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="67.5">
-      <c r="A3" s="39">
+    <row r="3" spans="1:9" ht="99.95" customHeight="1">
+      <c r="A3" s="38">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>52</v>
+      <c r="B3" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G3" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="99.95" customHeight="1">
-      <c r="A4" s="39">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="89.25" customHeight="1">
+      <c r="A4" s="38">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>19</v>
+      <c r="B4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="E4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="219" customHeight="1">
+      <c r="A5" s="38">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="29" customFormat="1" ht="111.75" customHeight="1">
+      <c r="A6" s="38">
+        <v>4</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="78.75" customHeight="1">
+      <c r="A7" s="38">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="99.95" customHeight="1">
+      <c r="A8" s="38">
+        <v>6</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="159" customHeight="1">
+      <c r="A9" s="38">
+        <v>7</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="169.5" customHeight="1" thickBot="1">
+      <c r="A10" s="38">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="93" customHeight="1" thickBot="1">
+      <c r="A11" s="38">
+        <v>9</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="99.95" customHeight="1">
-      <c r="A5" s="39">
-        <v>3</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="D11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="93" customHeight="1">
+      <c r="A12" s="39"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" s="8" customFormat="1" ht="111.75" customHeight="1">
+      <c r="A13" s="40">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="G13" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="99.95" customHeight="1">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="168.75" customHeight="1">
-      <c r="A6" s="39">
-        <v>4</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="219" customHeight="1">
-      <c r="A7" s="39">
-        <v>5</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" s="30" customFormat="1" ht="111.75" customHeight="1">
-      <c r="A8" s="39">
-        <v>6</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="78.75" customHeight="1">
-      <c r="A9" s="39">
-        <v>7</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="30"/>
-      <c r="I9"/>
-    </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="99.95" customHeight="1">
-      <c r="A10" s="39">
-        <v>8</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="30"/>
-      <c r="I10"/>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="159" customHeight="1">
-      <c r="A11" s="39">
-        <v>9</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="30"/>
-      <c r="I11"/>
-    </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="93" customHeight="1" thickBot="1">
-      <c r="A12" s="39">
-        <v>10</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="93" customHeight="1">
-      <c r="A13" s="40"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" s="8" customFormat="1" ht="111.75" customHeight="1">
-      <c r="A14" s="41">
-        <v>11</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="G14" s="37" t="s">
-        <v>45</v>
-      </c>
+      <c r="H14"/>
+      <c r="I14"/>
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" ht="99.95" customHeight="1">
       <c r="A15"/>
@@ -1431,13 +1810,11 @@
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
-      <c r="G15" s="21" t="s">
-        <v>44</v>
-      </c>
+      <c r="G15" s="21"/>
       <c r="H15"/>
       <c r="I15"/>
     </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" ht="99.95" customHeight="1">
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="99.95" customHeight="1">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -1459,7 +1836,7 @@
       <c r="H17"/>
       <c r="I17"/>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="99.95" customHeight="1">
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="173.25" customHeight="1">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -1470,7 +1847,7 @@
       <c r="H18"/>
       <c r="I18"/>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="173.25" customHeight="1">
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="96" customHeight="1">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1481,7 +1858,7 @@
       <c r="H19"/>
       <c r="I19"/>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="96" customHeight="1">
+    <row r="20" spans="1:9" s="3" customFormat="1" ht="96" customHeight="1">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1492,7 +1869,7 @@
       <c r="H20"/>
       <c r="I20"/>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" ht="96" customHeight="1">
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="83.25" customHeight="1">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1503,7 +1880,7 @@
       <c r="H21"/>
       <c r="I21"/>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" ht="83.25" customHeight="1">
+    <row r="22" spans="1:9" s="1" customFormat="1">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1580,7 +1957,7 @@
       <c r="H28"/>
       <c r="I28"/>
     </row>
-    <row r="29" spans="1:9" s="1" customFormat="1">
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="222" customHeight="1">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -1591,7 +1968,7 @@
       <c r="H29"/>
       <c r="I29"/>
     </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" ht="222" customHeight="1">
+    <row r="30" spans="1:9" s="1" customFormat="1" ht="121.5" customHeight="1">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -1602,7 +1979,7 @@
       <c r="H30"/>
       <c r="I30"/>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" ht="121.5" customHeight="1">
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="120.75" customHeight="1">
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -1613,7 +1990,7 @@
       <c r="H31"/>
       <c r="I31"/>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" ht="120.75" customHeight="1">
+    <row r="32" spans="1:9" s="2" customFormat="1" ht="120.75" customHeight="1">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -1624,7 +2001,7 @@
       <c r="H32"/>
       <c r="I32"/>
     </row>
-    <row r="33" spans="1:9" s="2" customFormat="1" ht="120.75" customHeight="1">
+    <row r="33" spans="1:9" s="1" customFormat="1" ht="42" customHeight="1">
       <c r="A33"/>
       <c r="B33"/>
       <c r="C33"/>
@@ -1635,17 +2012,6 @@
       <c r="H33"/>
       <c r="I33"/>
     </row>
-    <row r="34" spans="1:9" s="1" customFormat="1" ht="42" customHeight="1">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34" s="21"/>
-      <c r="H34"/>
-      <c r="I34"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1654,6 +2020,1783 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="46.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="14.25">
+      <c r="A2" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="41">
+        <v>50</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="41"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="41">
+        <v>50</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:7" ht="45.75" customHeight="1">
+      <c r="A8" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="41">
+        <v>0</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A11:G23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="46.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="14.25">
+      <c r="A2" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="41">
+        <v>50</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="41"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="41">
+        <v>50</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="41"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A7" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="42"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="41"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A12:G24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="23.375" customWidth="1"/>
+    <col min="7" max="7" width="46.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="14.25">
+      <c r="A2" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="81">
+      <c r="A5" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="41">
+        <v>50</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="41">
+        <v>0</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="41">
+        <v>50</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A7" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="41">
+        <v>200</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="42"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A8" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="42"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A9" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="42"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A10" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="42"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.25" customHeight="1">
+      <c r="A11" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="42"/>
+    </row>
+    <row r="12" spans="1:7" ht="66.75" customHeight="1">
+      <c r="A12" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="41">
+        <v>5000</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="75" customHeight="1">
+      <c r="A13" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="41">
+        <v>5000</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="41"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A18:G30"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G24"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="29.125" customWidth="1"/>
+    <col min="7" max="7" width="46.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="14.25">
+      <c r="A2" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="41">
+        <v>50</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="41"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="41"/>
+    </row>
+    <row r="7" spans="1:7" ht="45.75" customHeight="1">
+      <c r="A7" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="41">
+        <v>0</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A12" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A12:G24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="29.125" customWidth="1"/>
+    <col min="7" max="7" width="46.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="14.25">
+      <c r="A2" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="41">
+        <v>50</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="41"/>
+    </row>
+    <row r="6" spans="1:7" ht="27">
+      <c r="A6" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41">
+        <v>0</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="41">
+        <v>200</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="41"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A12" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A12:G24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="29.125" customWidth="1"/>
+    <col min="7" max="7" width="46.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="14.25">
+      <c r="A2" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="41">
+        <v>50</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="41">
+        <v>50</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="41"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="41">
+        <v>200</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="42"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="41"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A11:G23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1668,7 +3811,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="95.25" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/document/app_server接口说明书_09-22.xlsx
+++ b/document/app_server接口说明书_09-22.xlsx
@@ -109,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>task/getTaskList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     what : ***
 }</t>
@@ -758,7 +754,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">具体图片现在的例子：
+    <t>task/getTaskList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">具体图片下载的例子：
 BitmapUtils mbug = new BitmapUtils(MapFragment.this.getActivity());
             robotBitmapLoadCallBack rblcb = new robotBitmapLoadCallBack( );
             mbug.display(View view, String uri, BitmapDisplayConfig displayConfig, BitmapLoadCallBack&lt;T&gt; callBack);
@@ -1162,6 +1162,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1173,9 +1176,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1509,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1554,22 +1554,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>20</v>
-      </c>
       <c r="D3" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="89.25" customHeight="1">
@@ -1577,10 +1577,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>61</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>14</v>
@@ -1589,7 +1589,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="24"/>
       <c r="H4" s="4"/>
@@ -1599,22 +1599,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="H5" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="44" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="26" t="s">
         <v>6</v>
@@ -1632,11 +1632,11 @@
         <v>9</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" ht="78.75" customHeight="1">
@@ -1644,7 +1644,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>7</v>
@@ -1656,10 +1656,10 @@
         <v>8</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7"/>
@@ -1669,22 +1669,22 @@
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H8" s="29"/>
       <c r="I8"/>
@@ -1694,22 +1694,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="24" t="s">
         <v>32</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>33</v>
       </c>
       <c r="H9" s="29"/>
       <c r="I9"/>
@@ -1719,22 +1719,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="D10" s="27" t="s">
         <v>132</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>133</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H10" s="4"/>
     </row>
@@ -1743,22 +1743,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="4"/>
     </row>
@@ -1783,11 +1783,11 @@
         <v>13</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="9"/>
       <c r="G13" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="99.95" customHeight="1">
@@ -1798,7 +1798,7 @@
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H14"/>
       <c r="I14"/>
@@ -2039,49 +2039,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="A2" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="C3" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="D3" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="E3" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="F3" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="G3" s="43" t="s">
         <v>45</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
@@ -2089,207 +2089,207 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="41">
         <v>50</v>
       </c>
       <c r="D5" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>50</v>
-      </c>
       <c r="F5" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="41"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="41">
         <v>50</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="41" t="s">
         <v>57</v>
-      </c>
-      <c r="G6" s="41" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>70</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>71</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="41"/>
       <c r="F7" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="41"/>
     </row>
     <row r="8" spans="1:7" ht="45.75" customHeight="1">
       <c r="A8" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="41">
         <v>0</v>
       </c>
       <c r="F8" s="41"/>
       <c r="G8" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="47" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2321,49 +2321,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="A2" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="C3" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="D3" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="E3" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="F3" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="G3" s="43" t="s">
         <v>45</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
@@ -2371,205 +2371,205 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="41">
         <v>50</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="41"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="41">
         <v>50</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="41"/>
     </row>
     <row r="7" spans="1:7" ht="20.25" customHeight="1">
       <c r="A7" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>70</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>71</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="41"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
+      <c r="A12" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2601,187 +2601,187 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="A2" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="C3" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="D3" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="E3" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="F3" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="G3" s="43" t="s">
         <v>45</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="81">
       <c r="A5" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="41">
         <v>50</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="41">
         <v>0</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="41">
         <v>50</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="G6" s="42" t="s">
         <v>122</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.25" customHeight="1">
       <c r="A7" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="41">
         <v>200</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:7" ht="20.25" customHeight="1">
       <c r="A8" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
       <c r="F8" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" s="42"/>
     </row>
     <row r="9" spans="1:7" ht="20.25" customHeight="1">
       <c r="A9" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
       <c r="F9" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G9" s="42"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" customHeight="1">
       <c r="A10" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
       <c r="F10" s="41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" s="42"/>
     </row>
     <row r="11" spans="1:7" ht="20.25" customHeight="1">
       <c r="A11" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="41"/>
       <c r="D11" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="41"/>
       <c r="F11" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G11" s="42"/>
     </row>
     <row r="12" spans="1:7" ht="66.75" customHeight="1">
       <c r="A12" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="41">
         <v>5000</v>
@@ -2789,18 +2789,18 @@
       <c r="D12" s="41"/>
       <c r="E12" s="41"/>
       <c r="F12" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="75" customHeight="1">
       <c r="A13" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="41">
         <v>5000</v>
@@ -2808,152 +2808,152 @@
       <c r="D13" s="41"/>
       <c r="E13" s="41"/>
       <c r="F13" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="41" t="s">
         <v>70</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>71</v>
       </c>
       <c r="C14" s="41"/>
       <c r="D14" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="41"/>
       <c r="F14" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="41"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
+      <c r="A18" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2985,238 +2985,238 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="A2" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="C3" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="D3" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="E3" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="F3" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="G3" s="43" t="s">
         <v>45</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="41">
         <v>50</v>
       </c>
       <c r="D5" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>50</v>
-      </c>
       <c r="F5" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="41"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="41" t="s">
         <v>70</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>71</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="41"/>
       <c r="F6" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="41"/>
     </row>
     <row r="7" spans="1:7" ht="45.75" customHeight="1">
       <c r="A7" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C7" s="41"/>
       <c r="D7" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="41">
         <v>0</v>
       </c>
       <c r="F7" s="41"/>
       <c r="G7" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A12" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
+      <c r="A12" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3248,85 +3248,85 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="A2" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="C3" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="D3" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="E3" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="F3" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="G3" s="43" t="s">
         <v>45</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="41">
         <v>50</v>
       </c>
       <c r="D5" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>50</v>
-      </c>
       <c r="F5" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="41"/>
     </row>
     <row r="6" spans="1:7" ht="27">
       <c r="A6" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
@@ -3334,173 +3334,173 @@
         <v>0</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="41">
         <v>200</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G7" s="41"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>70</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>71</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="41"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A12" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
+      <c r="A12" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3532,49 +3532,49 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="A2" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="C3" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="D3" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="E3" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="F3" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="G3" s="43" t="s">
         <v>45</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
@@ -3582,209 +3582,209 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="41">
         <v>50</v>
       </c>
       <c r="D5" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="41" t="s">
-        <v>50</v>
-      </c>
       <c r="F5" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="41" t="s">
         <v>127</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="41">
         <v>50</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G6" s="41"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="41">
         <v>200</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G7" s="42"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>70</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>71</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="41"/>
       <c r="F8" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="41"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
+      <c r="A11" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3811,7 +3811,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="95.25" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/document/app_server接口说明书_09-22.xlsx
+++ b/document/app_server接口说明书_09-22.xlsx
@@ -720,26 +720,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "status": 0,
- "tasks": [
- { "taskId": xxxx,
-    "taskState":xxxx,
-    "performAddress": xxxx,
-     "photosPreconstructionSize":xxx
-     "photosUrlPreconstruction":xxx;
-     "photosPostconstructionSize":xxx;
-     "photosUrlPostconstruction":xxx;
-     "audioUrl":xxx
-     "comment":xxx
-    "finishedTime": xxx
- },
-...
- ]
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"taskState":0  可抢任务
             1   还未施工
             2   已经完成
@@ -776,6 +756,27 @@
 。。。
 }
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "status": 0,
+ "tasks": [
+ { "taskId": xxxx,
+    "taskState":xxxx,
+    "performAddress": xxxx,
+     "photosPreconstructionSize":xxx
+     "photosUrlPreconstruction":xxx;
+     "photosPostconstructionSize":xxx;
+     "photosUrlPostconstruction":xxx;
+     "audioUrl":xxx
+     "comment":xxx
+    "robState" : xxx
+    "finishedTime": xxx
+ },
+...
+ ]
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1509,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1602,20 +1603,20 @@
         <v>34</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="29" customFormat="1" ht="111.75" customHeight="1">

--- a/document/app_server接口说明书_09-22.xlsx
+++ b/document/app_server接口说明书_09-22.xlsx
@@ -709,17 +709,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fileType:  0： 音频
-           2： 施工前照片
-           3： 施工后照片
-files: 是java的File 类型的数组要上传的文件数组
-xutil example:
-for (int i = 0; i &lt; files.size(); i++) {
-    params.addBodyParameter("files[]", files);
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"taskState":0  可抢任务
             1   还未施工
             2   已经完成
@@ -759,20 +748,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>fileType:  0： 音频
+           1： 施工前照片
+           2： 施工后照片
+files: 是java的File 类型的数组要上传的文件数组
+xutil example:
+for (int i = 0; i &lt; files.size(); i++) {
+    params.addBodyParameter("files[]", files);
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{
  "status": 0,
  "tasks": [
  { "taskId": xxxx,
     "taskState":xxxx,
     "performAddress": xxxx,
-     "photosPreconstructionSize":xxx
-     "photosUrlPreconstruction":xxx;
-     "photosPostconstructionSize":xxx;
-     "photosUrlPostconstruction":xxx;
-     "audioUrl":xxx
+    "isRobTag" : xxx,
+    "finishedTime": xxx,
+     "photosPreconstructionSize":xxx,
+     "photosUrlPreconstruction":xxx,
+     "photosPostconstructionSize":xxx,
+     "photosUrlPostconstruction":xxx,
+     "audioUrl":xxx,
      "comment":xxx
-    "robState" : xxx
-    "finishedTime": xxx
  },
 ...
  ]
@@ -1510,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1595,7 +1595,7 @@
       <c r="G4" s="24"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="219" customHeight="1">
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="286.5" customHeight="1">
       <c r="A5" s="38">
         <v>3</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>34</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>10</v>
@@ -1613,10 +1613,10 @@
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="29" customFormat="1" ht="111.75" customHeight="1">
@@ -1735,7 +1735,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H10" s="4"/>
     </row>
